--- a/results/JIHUMING_scores.xlsx
+++ b/results/JIHUMING_scores.xlsx
@@ -2,21 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Manjaro\SE_jiuming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Manjaro\SE_jiuming\master\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E9EA6-2566-47CA-B085-DA8F52BCD2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF340D-92B1-43C7-A97F-5D3B8C486D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6210" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TrainingDataScores" sheetId="1" r:id="rId1"/>
     <sheet name="TrainingDataAnalysis" sheetId="4" r:id="rId2"/>
     <sheet name="TestDataScores" sheetId="5" r:id="rId3"/>
     <sheet name="TestDataAnalysis" sheetId="7" r:id="rId4"/>
+    <sheet name="OtherTablesScores" sheetId="8" r:id="rId5"/>
+    <sheet name="ANOVAStatistics" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_runid">#N/A</definedName>
@@ -24,14 +26,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId7"/>
-        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="78">
   <si>
     <t>runid</t>
   </si>
@@ -180,13 +182,125 @@
   <si>
     <t>Sum of ndcg</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>group 1</t>
+  </si>
+  <si>
+    <t>group 2</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>q-value</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>SHORT TERM SECTION</t>
+  </si>
+  <si>
+    <t>seupd2223-JIHUMING-07_fr_fr</t>
+  </si>
+  <si>
+    <t>seupd2223-JIHUMING-08_fr_fr_3gram</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>seupd2223-JIHUMING-09_fr_fr_4gram</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>seupd2223-JIHUMING-10_fr_fr_5gram</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>seupd2223-JIHUMING-12_fr_fr_4gram_ner</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>LONG TERM SECTION</t>
+  </si>
+  <si>
+    <t>HELD-OUT SECTION</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>HELD OUT SECTION</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>sum_sq</t>
+  </si>
+  <si>
+    <t>mean_sq</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>PR(&gt;F)</t>
+  </si>
+  <si>
+    <t>C(system)</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -313,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -335,22 +449,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -373,6 +485,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -382,14 +504,19 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -424,7 +551,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[allScores.xlsx]TrainingDataAnalysis!PivotTable3</c:name>
+    <c:name>[JIHUMING_scores.xlsx]TrainingDataAnalysis!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1533,7 +1660,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[allScores.xlsx]TestDataAnalysis!PivotTable6</c:name>
+    <c:name>[JIHUMING_scores.xlsx]TestDataAnalysis!PivotTable6</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -4839,8 +4966,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="runid">
@@ -4863,7 +4990,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4922,8 +5049,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="score">
@@ -4946,7 +5073,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5355,7 +5482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="RunIndex">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="RunIndex">
   <location ref="A1:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6315,8 +6442,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="runid"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="map" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ndcg" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="map" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ndcg" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6331,6 +6458,69 @@
     <tableColumn id="2" xr3:uid="{10D0BDCD-49B5-4746-BCBD-D15429EECBD7}" name="Short Term"/>
     <tableColumn id="3" xr3:uid="{32DCFA0C-1819-487E-B804-20E072278FCB}" name="Lont Term"/>
     <tableColumn id="4" xr3:uid="{B81035DC-AA1C-4261-ABBE-4E385855B477}" name="Held out"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DF8AD8D-CA93-4FD0-9F70-997A9846C82D}" name="Table14" displayName="Table14" ref="A1:I31" totalsRowShown="0">
+  <autoFilter ref="A1:I31" xr:uid="{0DF8AD8D-CA93-4FD0-9F70-997A9846C82D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{19868E11-8E7C-40F2-8B34-63BA42B65436}" name="ID"/>
+    <tableColumn id="9" xr3:uid="{80F36C61-2269-4BED-8757-4FF4F84AC0A0}" name="Section"/>
+    <tableColumn id="2" xr3:uid="{684A2563-7D8C-4E3B-AB80-046858284B91}" name="group 1"/>
+    <tableColumn id="3" xr3:uid="{D997D1FC-B352-4C87-AB32-C9AAC77C72C2}" name="group 2"/>
+    <tableColumn id="4" xr3:uid="{04888DC8-E2A1-41CA-8763-F18F1AEE4C5A}" name="Diff" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2D9ED9D6-8A28-4AA7-9F5C-1FB191545E18}" name="Lower" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{27D9D6F3-BCE1-476A-AF65-6B91CCDE9CF3}" name="Upper" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{8BE4EF01-BDD7-4A57-81E9-57F945909F91}" name="q-value" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{9A0A1F6E-607A-4CC5-B4F6-04320727AC43}" name="p-value" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73244233-CAD3-417C-8A03-05C9FDAFDDDC}" name="Table4" displayName="Table4" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3" xr:uid="{73244233-CAD3-417C-8A03-05C9FDAFDDDC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AAD811FC-DA3C-437C-8B41-5DAA90D5F193}" name="SHORT TERM SECTION"/>
+    <tableColumn id="2" xr3:uid="{01C8DD3A-8797-429D-8BE0-ECF9E6AAAD64}" name="df"/>
+    <tableColumn id="3" xr3:uid="{05DF495D-9229-4A50-A1F4-208F92A748AD}" name="sum_sq"/>
+    <tableColumn id="4" xr3:uid="{6463E6D0-95F2-43FB-A4B3-67723514DAC4}" name="mean_sq"/>
+    <tableColumn id="5" xr3:uid="{F487A584-C63B-4C85-A03C-D31CD96B88C8}" name="F"/>
+    <tableColumn id="6" xr3:uid="{147AC775-AA86-4FC1-ACFA-0332CFE07F9B}" name="PR(&gt;F)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A5F3D654-2BCB-4ADA-97FB-50B2021F1B8A}" name="Table5" displayName="Table5" ref="A5:F7" totalsRowShown="0">
+  <autoFilter ref="A5:F7" xr:uid="{A5F3D654-2BCB-4ADA-97FB-50B2021F1B8A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B3778CDE-A316-4B35-BEBA-D4CA5881716E}" name="LONG TERM SECTION"/>
+    <tableColumn id="2" xr3:uid="{8B023591-6747-4364-882B-7190395C8352}" name="df"/>
+    <tableColumn id="3" xr3:uid="{BE2657AF-63C9-438F-83C2-033226CC4C08}" name="sum_sq"/>
+    <tableColumn id="4" xr3:uid="{75607AB7-84C2-42AC-8795-9C24DD136D18}" name="mean_sq"/>
+    <tableColumn id="5" xr3:uid="{6A204A4A-7E74-456F-9365-DFABBF0C88D4}" name="F"/>
+    <tableColumn id="6" xr3:uid="{28CD5ECA-132B-4C67-B87D-CC786CEBC6CB}" name="PR(&gt;F)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A004AD27-7240-45C9-972B-E0B4102B2B62}" name="Table6" displayName="Table6" ref="A9:F11" totalsRowShown="0">
+  <autoFilter ref="A9:F11" xr:uid="{A004AD27-7240-45C9-972B-E0B4102B2B62}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{534D7636-C20C-42A7-A8B2-3C8B5ADB0E81}" name="HELD OUT SECTION"/>
+    <tableColumn id="2" xr3:uid="{3DEE7900-AE19-461F-9E9C-1D054E26AEF3}" name="df"/>
+    <tableColumn id="3" xr3:uid="{CF837EAF-E9B9-40E1-9024-47384914E8D1}" name="sum_sq"/>
+    <tableColumn id="4" xr3:uid="{078EA8F8-E236-4A27-AF72-8D72A2F70311}" name="mean_sq"/>
+    <tableColumn id="5" xr3:uid="{71EFB42B-B07E-4D3C-A4A8-6B85325F33B0}" name="F"/>
+    <tableColumn id="6" xr3:uid="{84FDE815-A559-4B99-8913-92228414FF69}" name="PR(&gt;F)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6635,7 +6825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6791,12 +6981,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="q/EfBmpICU5GGi6FVq5WwobbA4tXy5r/ZPxIsfx5g7TZGieOuhNypb41hVioSCvhBPcjtcAjVAaYyTFM/JQ/7w==" saltValue="Q1U343fOtnV5P9mvh5BYKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="3"/>
     <cfRule type="top10" dxfId="0" priority="2" rank="3"/>
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6843,10 +7033,10 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="6">
         <v>0.10979999999999999</v>
       </c>
     </row>
@@ -6854,10 +7044,10 @@
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>0.1525</v>
       </c>
     </row>
@@ -6865,10 +7055,10 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>0.16139999999999999</v>
       </c>
     </row>
@@ -6876,10 +7066,10 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>0.1661</v>
       </c>
     </row>
@@ -6887,10 +7077,10 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>0.20250000000000001</v>
       </c>
     </row>
@@ -6898,10 +7088,10 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>0.1028</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>0.2288</v>
       </c>
     </row>
@@ -6909,10 +7099,10 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>0.1288</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>0.2797</v>
       </c>
     </row>
@@ -6920,10 +7110,10 @@
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>0.13619999999999999</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>0.28810000000000002</v>
       </c>
     </row>
@@ -6931,10 +7121,10 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>0.1656</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>0.3135</v>
       </c>
     </row>
@@ -6942,10 +7132,10 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>0.16980000000000001</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>0.32079999999999997</v>
       </c>
     </row>
@@ -6953,10 +7143,10 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>0.17369999999999999</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>0.32690000000000002</v>
       </c>
     </row>
@@ -6964,10 +7154,10 @@
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>0.17480000000000001</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>0.32850000000000001</v>
       </c>
     </row>
@@ -6975,10 +7165,10 @@
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>1.3824000000000001</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>2.8786</v>
       </c>
     </row>
@@ -7033,257 +7223,257 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2">
         <v>0.1883</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2">
         <v>0.188</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2">
         <v>0.17460000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3">
         <v>0.15609999999999999</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3">
         <v>0.15890000000000001</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3">
         <v>0.13969999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>0.3367</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>0.34470000000000001</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>0.3271</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>0.1893</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <v>0.18809999999999999</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <v>0.17249999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6">
         <v>0.15790000000000001</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6">
         <v>0.16</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6">
         <v>0.1326</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>0.33839999999999998</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>0.34539999999999998</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <v>0.33069999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>0.19109999999999999</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <v>0.1888</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>0.17630000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9">
         <v>0.15809999999999999</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9">
         <v>0.16109999999999999</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9">
         <v>0.13969999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <v>0.34229999999999999</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>0.33639999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <v>0.19259999999999999</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>0.192</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>0.17879999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12">
         <v>0.1603</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12">
         <v>0.16420000000000001</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12">
         <v>0.13850000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>0.34470000000000001</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>0.3533</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="15">
         <v>0.34129999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>0.14680000000000001</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="16">
         <v>0.14330000000000001</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>0.13689999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15">
         <v>0.1172</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15">
         <v>0.1192</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15">
         <v>0.1004</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="15">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <v>0.30459999999999998</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <v>0.2868</v>
       </c>
     </row>
@@ -7385,40 +7575,40 @@
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4">
         <v>0.17460000000000001</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4">
         <v>0.1883</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4">
         <v>0.188</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4">
         <v>0.13969999999999999</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4">
         <v>0.15609999999999999</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4">
         <v>0.15890000000000001</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4">
         <v>0.3271</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4">
         <v>0.3367</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4">
         <v>0.34470000000000001</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4">
         <v>0.64139999999999997</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4">
         <v>0.68110000000000004</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4">
         <v>0.69159999999999999</v>
       </c>
     </row>
@@ -7426,40 +7616,40 @@
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5">
         <v>0.17249999999999999</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5">
         <v>0.1893</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5">
         <v>0.18809999999999999</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5">
         <v>0.1326</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5">
         <v>0.15790000000000001</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5">
         <v>0.16</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5">
         <v>0.33069999999999999</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5">
         <v>0.33839999999999998</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5">
         <v>0.34539999999999998</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5">
         <v>0.63579999999999992</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5">
         <v>0.68559999999999999</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5">
         <v>0.69350000000000001</v>
       </c>
     </row>
@@ -7467,40 +7657,40 @@
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6">
         <v>0.17630000000000001</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6">
         <v>0.19109999999999999</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6">
         <v>0.1888</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6">
         <v>0.13969999999999999</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6">
         <v>0.15809999999999999</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6">
         <v>0.16109999999999999</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6">
         <v>0.33639999999999998</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6">
         <v>0.34229999999999999</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6">
         <v>0.34799999999999998</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6">
         <v>0.65239999999999998</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6">
         <v>0.6915</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6">
         <v>0.69789999999999996</v>
       </c>
     </row>
@@ -7508,40 +7698,40 @@
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7">
         <v>0.17879999999999999</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7">
         <v>0.19259999999999999</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7">
         <v>0.192</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7">
         <v>0.13850000000000001</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7">
         <v>0.1603</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7">
         <v>0.16420000000000001</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7">
         <v>0.34129999999999999</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7">
         <v>0.34470000000000001</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7">
         <v>0.3533</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7">
         <v>0.65860000000000007</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7">
         <v>0.6976</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7">
         <v>0.70950000000000002</v>
       </c>
     </row>
@@ -7549,40 +7739,40 @@
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8">
         <v>0.13689999999999999</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8">
         <v>0.14680000000000001</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8">
         <v>0.14330000000000001</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8">
         <v>0.1004</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8">
         <v>0.1172</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8">
         <v>0.1192</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8">
         <v>0.2868</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8">
         <v>0.29799999999999999</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8">
         <v>0.30459999999999998</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8">
         <v>0.52410000000000001</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8">
         <v>0.56200000000000006</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8">
         <v>0.56709999999999994</v>
       </c>
     </row>
@@ -7590,40 +7780,40 @@
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9">
         <v>0.83909999999999996</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9">
         <v>0.90810000000000002</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9">
         <v>0.90019999999999989</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9">
         <v>0.65090000000000003</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9">
         <v>0.74959999999999993</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9">
         <v>0.76339999999999997</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9">
         <v>1.6222999999999999</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9">
         <v>1.6601000000000001</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9">
         <v>1.696</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9">
         <v>3.1122999999999994</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9">
         <v>3.3178000000000001</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9">
         <v>3.3596000000000004</v>
       </c>
     </row>
@@ -7639,4 +7829,1162 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7773485F-144F-47EC-AA19-737D648F8CDA}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="17">
+        <v>9.859999999999999E-4</v>
+      </c>
+      <c r="F2" s="17">
+        <v>-2.9190000000000001E-2</v>
+      </c>
+      <c r="G2" s="17">
+        <v>3.1161999999999999E-2</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.12612200000000001</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="17">
+        <v>2.8080000000000002E-3</v>
+      </c>
+      <c r="F3" s="17">
+        <v>-2.7368E-2</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3.2983999999999999E-2</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.359124</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="17">
+        <v>4.2820000000000002E-3</v>
+      </c>
+      <c r="F4" s="17">
+        <v>-2.5894E-2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3.4458000000000003E-2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.54761099999999996</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="17">
+        <v>4.1537999999999999E-2</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1.1362000000000001E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>7.1714E-2</v>
+      </c>
+      <c r="H5" s="17">
+        <v>5.3122879999999997</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1.6410000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1.8220000000000001E-3</v>
+      </c>
+      <c r="F6" s="17">
+        <v>-2.8354000000000001E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3.1997999999999999E-2</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.23300199999999999</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3.2959999999999999E-3</v>
+      </c>
+      <c r="F7" s="17">
+        <v>-2.6880000000000001E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>3.3472000000000002E-2</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.421489</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="17">
+        <v>4.2523999999999999E-2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1.2348E-2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>5.4384100000000002</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1.152E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1.474E-3</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-2.8701999999999998E-2</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.18848699999999999</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="17">
+        <v>4.4345999999999997E-2</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1.417E-2</v>
+      </c>
+      <c r="G10" s="17">
+        <v>7.4522000000000005E-2</v>
+      </c>
+      <c r="H10" s="17">
+        <v>5.6714120000000001</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="17">
+        <v>4.582E-2</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1.5644000000000002E-2</v>
+      </c>
+      <c r="G11" s="17">
+        <v>7.5994999999999993E-2</v>
+      </c>
+      <c r="H11" s="17">
+        <v>5.8598990000000004</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="F12" s="17">
+        <v>-2.6807999999999998E-2</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2.7487999999999999E-2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>4.8344999999999999E-2</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1.09E-3</v>
+      </c>
+      <c r="F13" s="17">
+        <v>-2.6058000000000001E-2</v>
+      </c>
+      <c r="G13" s="17">
+        <v>2.8237000000000002E-2</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.154891</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="17">
+        <v>4.2389999999999997E-3</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-2.2908999999999999E-2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>3.1386999999999998E-2</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.60259200000000002</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="17">
+        <v>4.4457999999999998E-2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1.7311E-2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>7.1606000000000003E-2</v>
+      </c>
+      <c r="H15" s="17">
+        <v>6.3199430000000003</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="17">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-2.6398000000000001E-2</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2.7897000000000002E-2</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.106546</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="17">
+        <v>3.8990000000000001E-3</v>
+      </c>
+      <c r="F17" s="17">
+        <v>-2.3248999999999999E-2</v>
+      </c>
+      <c r="G17" s="17">
+        <v>3.1047000000000002E-2</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.55424700000000005</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4.4797999999999998E-2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1.7651E-2</v>
+      </c>
+      <c r="G18" s="17">
+        <v>7.1945999999999996E-2</v>
+      </c>
+      <c r="H18" s="17">
+        <v>6.3682869999999996</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="17">
+        <v>3.1489999999999999E-3</v>
+      </c>
+      <c r="F19" s="17">
+        <v>-2.3997999999999998E-2</v>
+      </c>
+      <c r="G19" s="17">
+        <v>3.0297000000000001E-2</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.44770100000000002</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4.5547999999999998E-2</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1.84E-2</v>
+      </c>
+      <c r="G20" s="17">
+        <v>7.2695999999999997E-2</v>
+      </c>
+      <c r="H20" s="17">
+        <v>6.4748330000000003</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="17">
+        <v>4.8696999999999997E-2</v>
+      </c>
+      <c r="F21" s="17">
+        <v>2.155E-2</v>
+      </c>
+      <c r="G21" s="17">
+        <v>7.5844999999999996E-2</v>
+      </c>
+      <c r="H21" s="17">
+        <v>6.9225339999999997</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17">
+        <v>2.0539999999999998E-3</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-7.9202999999999996E-2</v>
+      </c>
+      <c r="G22" s="17">
+        <v>8.3310999999999996E-2</v>
+      </c>
+      <c r="H22" s="17">
+        <v>9.7886000000000001E-2</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1.704E-3</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-7.9552999999999999E-2</v>
+      </c>
+      <c r="G23" s="17">
+        <v>8.2960999999999993E-2</v>
+      </c>
+      <c r="H23" s="17">
+        <v>8.1207000000000001E-2</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="17">
+        <v>4.2440000000000004E-3</v>
+      </c>
+      <c r="F24" s="17">
+        <v>-7.7012999999999998E-2</v>
+      </c>
+      <c r="G24" s="17">
+        <v>8.5500999999999994E-2</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.202239</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="17">
+        <v>3.7636000000000003E-2</v>
+      </c>
+      <c r="F25" s="17">
+        <v>-4.3621E-2</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0.118892</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1.793506</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0.68581199999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="17">
+        <v>3.7580000000000001E-3</v>
+      </c>
+      <c r="F26" s="17">
+        <v>-7.7498999999999998E-2</v>
+      </c>
+      <c r="G26" s="17">
+        <v>8.5014999999999993E-2</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0.179093</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="17">
+        <v>6.2979999999999998E-3</v>
+      </c>
+      <c r="F27" s="17">
+        <v>-7.4958999999999998E-2</v>
+      </c>
+      <c r="G27" s="17">
+        <v>8.7554999999999994E-2</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0.30012499999999998</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="17">
+        <v>3.5582000000000003E-2</v>
+      </c>
+      <c r="F28" s="17">
+        <v>-4.5675E-2</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0.116838</v>
+      </c>
+      <c r="H28" s="17">
+        <v>1.6956199999999999</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0.72501000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="17">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="F29" s="17">
+        <v>-7.8716999999999995E-2</v>
+      </c>
+      <c r="G29" s="17">
+        <v>8.3796999999999996E-2</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0.121032</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3.934E-2</v>
+      </c>
+      <c r="F30" s="17">
+        <v>-4.1917000000000003E-2</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0.120597</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1.8747130000000001</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0.65329800000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="17">
+        <v>4.1880000000000001E-2</v>
+      </c>
+      <c r="F31" s="17">
+        <v>-3.9377000000000002E-2</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0.123136</v>
+      </c>
+      <c r="H31" s="17">
+        <v>1.995746</v>
+      </c>
+      <c r="I31" s="17">
+        <v>0.60483500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069FB6B8-9376-488A-9E4A-1E029FF1AC8D}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1.3482540000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.337063</v>
+      </c>
+      <c r="E2">
+        <v>6.2506130000000004</v>
+      </c>
+      <c r="F2">
+        <v>5.1999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>4405</v>
+      </c>
+      <c r="C3">
+        <v>237.53901300000001</v>
+      </c>
+      <c r="D3">
+        <v>5.3925000000000001E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1.5643860000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.39109699999999997</v>
+      </c>
+      <c r="E6">
+        <v>8.5625060000000008</v>
+      </c>
+      <c r="F6" s="18">
+        <v>7.0054300000000003E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7">
+        <v>4610</v>
+      </c>
+      <c r="C7">
+        <v>210.56392</v>
+      </c>
+      <c r="D7">
+        <v>4.5675E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0.11896</v>
+      </c>
+      <c r="D10">
+        <v>2.9739999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.68916100000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.59971200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11">
+        <v>485</v>
+      </c>
+      <c r="C11">
+        <v>20.929667999999999</v>
+      </c>
+      <c r="D11">
+        <v>4.3153999999999998E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/results/JIHUMING_scores.xlsx
+++ b/results/JIHUMING_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Manjaro\SE_jiuming\master\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF340D-92B1-43C7-A97F-5D3B8C486D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6042E3B5-CB88-4891-93B7-A09979B5B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-10905" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TrainingDataScores" sheetId="1" r:id="rId1"/>
@@ -464,6 +464,27 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -502,27 +523,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6442,8 +6442,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="runid"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="map" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ndcg" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="map" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ndcg" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6471,11 +6471,11 @@
     <tableColumn id="9" xr3:uid="{80F36C61-2269-4BED-8757-4FF4F84AC0A0}" name="Section"/>
     <tableColumn id="2" xr3:uid="{684A2563-7D8C-4E3B-AB80-046858284B91}" name="group 1"/>
     <tableColumn id="3" xr3:uid="{D997D1FC-B352-4C87-AB32-C9AAC77C72C2}" name="group 2"/>
-    <tableColumn id="4" xr3:uid="{04888DC8-E2A1-41CA-8763-F18F1AEE4C5A}" name="Diff" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2D9ED9D6-8A28-4AA7-9F5C-1FB191545E18}" name="Lower" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{27D9D6F3-BCE1-476A-AF65-6B91CCDE9CF3}" name="Upper" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{8BE4EF01-BDD7-4A57-81E9-57F945909F91}" name="q-value" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{9A0A1F6E-607A-4CC5-B4F6-04320727AC43}" name="p-value" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{04888DC8-E2A1-41CA-8763-F18F1AEE4C5A}" name="Diff" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2D9ED9D6-8A28-4AA7-9F5C-1FB191545E18}" name="Lower" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{27D9D6F3-BCE1-476A-AF65-6B91CCDE9CF3}" name="Upper" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{8BE4EF01-BDD7-4A57-81E9-57F945909F91}" name="q-value" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9A0A1F6E-607A-4CC5-B4F6-04320727AC43}" name="p-value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6826,7 +6826,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6981,12 +6981,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="q/EfBmpICU5GGi6FVq5WwobbA4tXy5r/ZPxIsfx5g7TZGieOuhNypb41hVioSCvhBPcjtcAjVAaYyTFM/JQ/7w==" saltValue="Q1U343fOtnV5P9mvh5BYKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="2" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="3" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="0" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="1" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7492,7 +7492,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7835,8 +7835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7773485F-144F-47EC-AA19-737D648F8CDA}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8751,6 +8751,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="QJfrn6PoUTE7p1367vAMHB31v+j4pLiepqHnQTUvvqNOfp8to/pYvuhPhcNHnSv+R8uIWNIcfm6/yMtQBN0uCg==" saltValue="fBRYnkSjMx5EKi2jUKsK8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8762,8 +8763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069FB6B8-9376-488A-9E4A-1E029FF1AC8D}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8980,6 +8981,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="9ePN8ZVs52UMK8Ak6ErzXgJPk9JeMGiRij3Yc4KvvvfarLDI7Oj0gBJKxFh/tbM7ThfAGRrxE0JCNF98JUBQQQ==" saltValue="FFvhmtwXVB1iD31/tXGBEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
